--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3175.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3175.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.137608989429517</v>
+        <v>1.043799996376038</v>
       </c>
       <c r="B1">
-        <v>1.442889906686522</v>
+        <v>2.250301599502563</v>
       </c>
       <c r="C1">
-        <v>2.101321824989298</v>
+        <v>4.266026020050049</v>
       </c>
       <c r="D1">
-        <v>7.027456415646867</v>
+        <v>0.8609573245048523</v>
       </c>
       <c r="E1">
-        <v>4.415707649462157</v>
+        <v>1.153002262115479</v>
       </c>
     </row>
   </sheetData>
